--- a/rsc/data/pddl_mapper_refined_data.xlsx
+++ b/rsc/data/pddl_mapper_refined_data.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="146">
   <si>
     <t>PDDL Mapper</t>
   </si>
@@ -541,6 +541,15 @@
   <si>
     <t>0035.out</t>
   </si>
+  <si>
+    <t>%-</t>
+  </si>
+  <si>
+    <t>Sorted values %-</t>
+  </si>
+  <si>
+    <t>Sorted values %-2</t>
+  </si>
 </sst>
 </file>
 
@@ -580,7 +589,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -650,11 +659,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,30 +709,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,6 +739,69 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -732,6 +817,1225 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Cactus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> plot - PDDL Mapper parser</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>refined_data!$K$3:$K$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>2.8318578754671409</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5775959246277891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6351330371644215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7255686153290224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.753100004671416</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8010931291562304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0272914859021958</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0668619138318274</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1572234899560918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1576081745586038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2868193442717173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3218931942117971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.387447496855744</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5775711453603654</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5913499886052866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6339513148925473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7267878293265229</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.7412234873374777</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.7727875134725144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8288380219651135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.8500017863613865</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9172951548756254</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.9312362334801767</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.9785056827045864</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.022444408894577</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0449695243884882</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.1408940965899017</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.1531513112651712</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.1827333788525989</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.2172888715388348</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.2218264457481789</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.258473136932226</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.2825427647231269</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.3097582100324763</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.3250120971644268</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.3392807774918669</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.3902930895401999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.4417576370314427</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.617344703853858</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.6543300459656018</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.7229798137616381</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.7347110877767582</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.7386647304913057</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.7772703936880214</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.8057638037684249</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.8237138324393749</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.8599034322402268</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.9250985701391867</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.9833586601571342</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.9911346668072349</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.0357424336748613</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.1580412314759112</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.1910737511440832</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.2251800049876129</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7.3611919758640774</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.5161117821152299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.5665330250797442</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.7130431966841551</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.7640259226356596</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.8171803498699894</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.0029101106091307</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.0604754893469579</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.2740863043599955</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.3353819854287909</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.3607071403352471</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.3902314761410359</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8.4429937275439961</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.5218828152911748</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.582215330942919</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.7461494289158868</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.7868232503426871</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.7999186527130409</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.883702977940084</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.0164341472999752</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.0638529557647249</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.1064020059969479</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.1893188895456017</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.2940197380588092</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.3334751097349358</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.4715223477169612</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.6579219192536225</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.7101569684477536</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.7294644748812953</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.9531994283899667</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10.627887872694982</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.962483509234831</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>11.370591894349012</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>11.382524172322199</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>12.115025368707306</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12.324356014803417</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>12.81082940771714</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13.135745697704772</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.791882480957563</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14.422782020821312</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14.812517751970807</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14.815040679165195</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15.368887903315223</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>17.263236390753164</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18.271527143007372</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>18.80914824190457</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>19.766812529716578</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>20.043762496631004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>21.62683504604297</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>61.076220722508928</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>110.02459523066891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CFF5-4248-AA71-1F00A6248CF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="394631896"/>
+        <c:axId val="394632224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="394631896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="105"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394632224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="394632224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="115"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394631896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>771524</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC201F95-6C04-4B80-9879-1D76191CFD05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1049,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BLG107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,504 +2363,1211 @@
     <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="1671" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="1671" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="33"/>
+      <c r="E1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="34">
+        <v>-0.02</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="J1" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12">
+      <c r="B3" s="31"/>
+      <c r="C3" s="4">
         <f>AVERAGE(blocksworld!B1:K1)</f>
         <v>1.0520926999999999E-3</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="5">
         <f>AVERAGE(blocksworld!B37:K37)</f>
         <v>1.8375339999999999E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="14">
+        <f>ABS(C3 - D3) / (ABS(C3 + D3) / 2)</f>
+        <v>1.405254748143802</v>
+      </c>
+      <c r="F3" s="14">
+        <f>(C3 - D3)/D3</f>
+        <v>4.7255686153290224</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1.1721610810803738</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="17">
+        <v>2.8318578754671409</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="14">
+      <c r="B4" s="27"/>
+      <c r="C4" s="6">
         <f>AVERAGE(blocksworld!B2:K2)</f>
         <v>2.8157839999999997E-4</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="7">
         <f>AVERAGE(blocksworld!B38:K38)</f>
         <v>1.9919599999999998E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="15">
+        <f t="shared" ref="E4:E67" si="0">ABS(C4 - D4) / (ABS(C4 + D4) / 2)</f>
+        <v>1.7357249467658158</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F67" si="1">(C4 - D4)/D4</f>
+        <v>13.135745697704772</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1.3918750793092614</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K4" s="18">
+        <v>4.5775959246277891</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="14">
+      <c r="B5" s="27"/>
+      <c r="C5" s="6">
         <f>AVERAGE(blocksworld!B3:K3)</f>
         <v>2.3824040000000002E-4</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="7">
         <f>AVERAGE(blocksworld!B39:K39)</f>
         <v>1.23623E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="15">
+        <f t="shared" si="0"/>
+        <v>1.8026789017037725</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="1"/>
+        <v>18.271527143007372</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1.3971484855547929</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="18">
+        <v>4.6351330371644215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="14">
+      <c r="B6" s="27"/>
+      <c r="C6" s="6">
         <f>AVERAGE(blocksworld!B4:K4)</f>
         <v>3.3573849999999998E-4</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="7">
         <f>AVERAGE(blocksworld!B40:K40)</f>
         <v>1.5954299999999997E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="15">
+        <f t="shared" si="0"/>
+        <v>1.8185427736934052</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="1"/>
+        <v>20.043762496631004</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1.405254748143802</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="18">
+        <v>4.7255686153290224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="14">
+      <c r="B7" s="27"/>
+      <c r="C7" s="6">
         <f>AVERAGE(blocksworld!B5:K5)</f>
         <v>2.2144649999999996E-4</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="7">
         <f>AVERAGE(blocksworld!B41:K41)</f>
         <v>1.3528499999999999E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="15">
+        <f t="shared" si="0"/>
+        <v>1.769703159910629</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="1"/>
+        <v>15.368887903315223</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1.4076794365205576</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="18">
+        <v>4.753100004671416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="14">
+      <c r="B8" s="27"/>
+      <c r="C8" s="6">
         <f>AVERAGE(blocksworld!B6:K6)</f>
         <v>2.2354559999999998E-4</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="7">
         <f>AVERAGE(blocksworld!B42:K42)</f>
         <v>1.4134999999999996E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="15">
+        <f t="shared" si="0"/>
+        <v>1.7621177327892978</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="1"/>
+        <v>14.815040679165195</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1.4118592520293491</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="18">
+        <v>4.8010931291562304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="14">
+      <c r="B9" s="27"/>
+      <c r="C9" s="6">
         <f>AVERAGE(blocksworld!B7:K7)</f>
         <v>1.3593740000000001E-4</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="7">
         <f>AVERAGE(blocksworld!B43:K43)</f>
         <v>9.1900000000000001E-6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="15">
+        <f t="shared" si="0"/>
+        <v>1.7467053085771533</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="1"/>
+        <v>13.791882480957563</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1.4307906526967609</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="18">
+        <v>5.0272914859021958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="14">
+      <c r="B10" s="27"/>
+      <c r="C10" s="6">
         <f>AVERAGE(blocksworld!B8:K8)</f>
         <v>1.1550510000000001E-4</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="7">
         <f>AVERAGE(blocksworld!B44:K44)</f>
         <v>1.1335900000000001E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6425162210957023</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="1"/>
+        <v>9.1893188895456017</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1.4339779029542263</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="18">
+        <v>5.0668619138318274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="14">
+      <c r="B11" s="27"/>
+      <c r="C11" s="6">
         <f>AVERAGE(blocksworld!B9:K9)</f>
         <v>1.7652299999999999E-4</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="7">
         <f>AVERAGE(blocksworld!B45:K45)</f>
         <v>1.7540299999999999E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6384622955499573</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="1"/>
+        <v>9.0638529557647249</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1.441124060801888</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="18">
+        <v>5.1572234899560918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="14">
+      <c r="B12" s="27"/>
+      <c r="C12" s="6">
         <f>AVERAGE(blocksworld!B10:K10)</f>
         <v>1.3346499999999998E-4</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="7">
         <f>AVERAGE(blocksworld!B46:K46)</f>
         <v>1.6840799999999996E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5518256780510131</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="1"/>
+        <v>6.9250985701391867</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1.441154097507346</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="18">
+        <v>5.1576081745586038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="14">
+      <c r="B13" s="27"/>
+      <c r="C13" s="6">
         <f>AVERAGE(blocksworld!B11:K11)</f>
         <v>2.025533E-4</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="7">
         <f>AVERAGE(blocksworld!B47:K47)</f>
         <v>2.1272400000000003E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6198399022096213</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="1"/>
+        <v>8.5218828152911748</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1.451063651914952</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="18">
+        <v>5.2868193442717173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="14">
+      <c r="B14" s="27"/>
+      <c r="C14" s="6">
         <f>AVERAGE(blocksworld!B12:K12)</f>
         <v>1.1709080000000001E-4</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="7">
         <f>AVERAGE(blocksworld!B48:K48)</f>
         <v>1.3668400000000003E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5818756921119126</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="1"/>
+        <v>7.5665330250797442</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1.4536932055821117</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="18">
+        <v>5.3218931942117971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="14">
+      <c r="B15" s="27"/>
+      <c r="C15" s="6">
         <f>AVERAGE(blocksworld!B13:K13)</f>
         <v>1.2926649999999999E-4</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="7">
         <f>AVERAGE(blocksworld!B49:K49)</f>
         <v>1.0449499999999999E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="E15" s="15">
+        <f t="shared" si="0"/>
+        <v>1.7008359815625984</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="1"/>
+        <v>11.370591894349012</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1.4585409910930012</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="18">
+        <v>5.387447496855744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="14">
+      <c r="B16" s="27"/>
+      <c r="C16" s="6">
         <f>AVERAGE(blocksworld!B14:K14)</f>
         <v>2.057723E-4</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="7">
         <f>AVERAGE(blocksworld!B50:K50)</f>
         <v>1.3342099999999999E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="E16" s="15">
+        <f t="shared" si="0"/>
+        <v>1.7564359074529106</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="1"/>
+        <v>14.422782020821312</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1.4721263682955799</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="18">
+        <v>5.5775711453603654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="14">
+      <c r="B17" s="27"/>
+      <c r="C17" s="6">
         <f>AVERAGE(blocksworld!B15:K15)</f>
         <v>1.0127669999999999E-4</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="7">
         <f>AVERAGE(blocksworld!B51:K51)</f>
         <v>1.3855000000000004E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="E17" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5186382204032423</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="1"/>
+        <v>6.3097582100324763</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1.473084496696365</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="18">
+        <v>5.5913499886052866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="14">
+      <c r="B18" s="27"/>
+      <c r="C18" s="6">
         <f>AVERAGE(blocksworld!B16:K16)</f>
         <v>1.3691700000000002E-4</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="7">
         <f>AVERAGE(blocksworld!B52:K52)</f>
         <v>1.7540499999999996E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="E18" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5457520677208942</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="1"/>
+        <v>6.8057638037684249</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1.4760249528711722</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="18">
+        <v>5.6339513148925473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="14">
+      <c r="B19" s="27"/>
+      <c r="C19" s="6">
         <f>AVERAGE(blocksworld!B17:K17)</f>
         <v>1.345381E-4</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="7">
         <f>AVERAGE(blocksworld!B53:K53)</f>
         <v>1.5440999999999997E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="E19" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5881826201117357</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="1"/>
+        <v>7.7130431966841551</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="18">
+        <v>1.4823204560091248</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="18">
+        <v>5.7267878293265229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="14">
+      <c r="B20" s="27"/>
+      <c r="C20" s="6">
         <f>AVERAGE(blocksworld!B18:K18)</f>
         <v>1.444742E-4</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="7">
         <f>AVERAGE(blocksworld!B54:K54)</f>
         <v>1.6047499999999998E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="E20" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6001163705592454</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="1"/>
+        <v>8.0029101106091307</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1.483285813083306</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="18">
+        <v>5.7412234873374777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="14">
+      <c r="B21" s="27"/>
+      <c r="C21" s="6">
         <f>AVERAGE(blocksworld!B19:K19)</f>
         <v>1.8473320000000001E-4</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="7">
         <f>AVERAGE(blocksworld!B55:K55)</f>
         <v>2.1692200000000002E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="E21" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5796602549880003</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="1"/>
+        <v>7.5161117821152299</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1.4853841053718722</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5.7727875134725144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="14">
+      <c r="B22" s="27"/>
+      <c r="C22" s="6">
         <f>AVERAGE(blocksworld!B20:K20)</f>
         <v>1.5137870000000002E-4</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="7">
         <f>AVERAGE(blocksworld!B56:K56)</f>
         <v>2.0665999999999998E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="E22" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5195202177108624</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="1"/>
+        <v>6.3250120971644268</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1.4890684941012535</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="18">
+        <v>5.8288380219651135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="14">
+      <c r="B23" s="27"/>
+      <c r="C23" s="6">
         <f>AVERAGE(blocksworld!B21:K21)</f>
         <v>1.9577522000000002E-3</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="7">
         <f>AVERAGE(blocksworld!B57:K57)</f>
         <v>1.76335E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="E23" s="15">
+        <f t="shared" si="0"/>
+        <v>1.964293555430719</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="1"/>
+        <v>110.02459523066891</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1.4904459758277238</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="18">
+        <v>5.8500017863613865</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="14">
+      <c r="B24" s="27"/>
+      <c r="C24" s="6">
         <f>AVERAGE(blocksworld!B22:K22)</f>
         <v>1.3724369999999997E-4</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="7">
         <f>AVERAGE(blocksworld!B58:K58)</f>
         <v>1.9219400000000001E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="E24" s="15">
+        <f t="shared" si="0"/>
+        <v>1.508653478040509</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="1"/>
+        <v>6.1408940965899017</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1.4947769507447601</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K24" s="18">
+        <v>5.9172951548756254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="14">
+      <c r="B25" s="27"/>
+      <c r="C25" s="6">
         <f>AVERAGE(blocksworld!B23:K23)</f>
         <v>1.7134480000000003E-4</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="7">
         <f>AVERAGE(blocksworld!B59:K59)</f>
         <v>2.7103400000000002E-5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="E25" s="15">
+        <f t="shared" si="0"/>
+        <v>1.4536932055821117</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="1"/>
+        <v>5.3218931942117971</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="18">
+        <v>1.495665003254502</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="18">
+        <v>5.9312362334801767</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="14">
+      <c r="B26" s="27"/>
+      <c r="C26" s="6">
         <f>AVERAGE(blocksworld!B24:K24)</f>
         <v>1.491861E-4</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="7">
         <f>AVERAGE(blocksworld!B60:K60)</f>
         <v>1.8287000000000003E-5</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="E26" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5632253776875213</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="1"/>
+        <v>7.1580412314759112</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1.4986529860258164</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="18">
+        <v>5.9785056827045864</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="14">
+      <c r="B27" s="27"/>
+      <c r="C27" s="6">
         <f>AVERAGE(blocksworld!B25:K25)</f>
         <v>1.3570410000000003E-4</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="7">
         <f>AVERAGE(blocksworld!B61:K61)</f>
         <v>1.88931E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="E27" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5111657908422662</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="1"/>
+        <v>6.1827333788525989</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="18">
+        <v>1.5013988510079106</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="18">
+        <v>6.022444408894577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="14">
+      <c r="B28" s="27"/>
+      <c r="C28" s="6">
         <f>AVERAGE(blocksworld!B26:K26)</f>
         <v>1.4862650000000002E-4</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="7">
         <f>AVERAGE(blocksworld!B62:K62)</f>
         <v>1.2781900000000002E-5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="E28" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6832407730948329</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="1"/>
+        <v>10.627887872694982</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="18">
+        <v>1.5027948846948496</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="18">
+        <v>6.0449695243884882</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="14">
+      <c r="B29" s="27"/>
+      <c r="C29" s="6">
         <f>AVERAGE(blocksworld!B27:K27)</f>
         <v>1.9536939999999998E-4</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="7">
         <f>AVERAGE(blocksworld!B63:K63)</f>
         <v>2.0805600000000003E-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="E29" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6150230137619983</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="1"/>
+        <v>8.3902314761410359</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1.508653478040509</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="18">
+        <v>6.1408940965899017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="14">
+      <c r="B30" s="27"/>
+      <c r="C30" s="6">
         <f>AVERAGE(blocksworld!B28:K28)</f>
         <v>1.2119629999999999E-4</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="7">
         <f>AVERAGE(blocksworld!B64:K64)</f>
         <v>3.1628599999999997E-5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="E30" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1721610810803738</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="1"/>
+        <v>2.8318578754671409</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1.5093921543596009</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="18">
+        <v>6.1531513112651712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="14">
+      <c r="B31" s="27"/>
+      <c r="C31" s="6">
         <f>AVERAGE(blocksworld!B29:K29)</f>
         <v>9.25531E-5</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="7">
         <f>AVERAGE(blocksworld!B65:K65)</f>
         <v>1.4041600000000001E-5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="E31" s="15">
+        <f t="shared" si="0"/>
+        <v>1.473084496696365</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="1"/>
+        <v>5.5913499886052866</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="18">
+        <v>1.5111657908422662</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K31" s="18">
+        <v>6.1827333788525989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="14">
+      <c r="B32" s="27"/>
+      <c r="C32" s="6">
         <f>AVERAGE(blocksworld!B30:K30)</f>
         <v>8.2663700000000013E-5</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="7">
         <f>AVERAGE(blocksworld!B66:K66)</f>
         <v>1.3714899999999998E-5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="E32" s="15">
+        <f t="shared" si="0"/>
+        <v>1.4307906526967609</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="1"/>
+        <v>5.0272914859021958</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="18">
+        <v>1.513221445353554</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K32" s="18">
+        <v>6.2172888715388348</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="14">
+      <c r="B33" s="27"/>
+      <c r="C33" s="6">
         <f>AVERAGE(blocksworld!B31:K31)</f>
         <v>8.8868000000000004E-5</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="7">
         <f>AVERAGE(blocksworld!B67:K67)</f>
         <v>1.4648100000000001E-5</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="E33" s="15">
+        <f t="shared" si="0"/>
+        <v>1.4339779029542263</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="1"/>
+        <v>5.0668619138318274</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="18">
+        <v>1.5134900953706518</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" s="18">
+        <v>6.2218264457481789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="14">
+      <c r="B34" s="27"/>
+      <c r="C34" s="6">
         <f>AVERAGE(blocksworld!B32:K32)</f>
         <v>1.093938E-4</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="7">
         <f>AVERAGE(blocksworld!B68:K68)</f>
         <v>1.7400499999999997E-5</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="E34" s="15">
+        <f t="shared" si="0"/>
+        <v>1.451063651914952</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="1"/>
+        <v>5.2868193442717173</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="18">
+        <v>1.5156489663795312</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="18">
+        <v>6.258473136932226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="14">
+      <c r="B35" s="27"/>
+      <c r="C35" s="6">
         <f>AVERAGE(blocksworld!B33:K33)</f>
         <v>1.1083979999999998E-4</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="7">
         <f>AVERAGE(blocksworld!B69:K69)</f>
         <v>1.9266100000000002E-5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="E35" s="15">
+        <f t="shared" si="0"/>
+        <v>1.4076794365205576</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="1"/>
+        <v>4.753100004671416</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="18">
+        <v>1.5170565231444699</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K35" s="18">
+        <v>6.2825427647231269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="14">
+      <c r="B36" s="27"/>
+      <c r="C36" s="6">
         <f>AVERAGE(blocksworld!B34:K34)</f>
         <v>9.7964800000000001E-5</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="7">
         <f>AVERAGE(blocksworld!B70:K70)</f>
         <v>1.68873E-5</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="E36" s="15">
+        <f t="shared" si="0"/>
+        <v>1.4118592520293491</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="1"/>
+        <v>4.8010931291562304</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="18">
+        <v>1.5186382204032423</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="18">
+        <v>6.3097582100324763</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="1">
         <f>AVERAGE(blocksworld!B35:K35)</f>
         <v>9.4372700000000005E-5</v>
@@ -1565,769 +3576,1543 @@
         <f>AVERAGE(blocksworld!B71:K71)</f>
         <v>1.6747200000000001E-5</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="E37" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3971484855547929</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="1"/>
+        <v>4.6351330371644215</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="18">
+        <v>1.5195202177108624</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" s="18">
+        <v>6.3250120971644268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="16">
+      <c r="B38" s="31"/>
+      <c r="C38" s="8">
         <f>AVERAGE(depots!B1:K1)</f>
         <v>5.6072999999999983E-5</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="9">
         <f>AVERAGE(depots!B24:K24)</f>
         <v>5.598099999999999E-6</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="E38" s="14">
+        <f t="shared" si="0"/>
+        <v>1.6369061035071535</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="1"/>
+        <v>9.0164341472999752</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H38" s="18">
+        <v>1.5203423284659994</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="K38" s="18">
+        <v>6.3392807774918669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="18">
+      <c r="B39" s="27"/>
+      <c r="C39" s="10">
         <f>AVERAGE(depots!B2:K2)</f>
         <v>6.0738100000000007E-5</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="11">
         <f>AVERAGE(depots!B25:K25)</f>
         <v>5.8777999999999999E-6</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="E39" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6470632386562367</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="1"/>
+        <v>9.3334751097349358</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="18">
+        <v>1.5232586088099092</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K39" s="18">
+        <v>6.3902930895401999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="18">
+      <c r="B40" s="27"/>
+      <c r="C40" s="10">
         <f>AVERAGE(depots!B3:K3)</f>
         <v>1.2245559999999998E-4</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="11">
         <f>AVERAGE(depots!B26:K26)</f>
         <v>1.1895800000000001E-5</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="E40" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6458302630266599</v>
+      </c>
+      <c r="F40" s="15">
+        <f t="shared" si="1"/>
+        <v>9.2940197380588092</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="18">
+        <v>1.5261650272387342</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K40" s="18">
+        <v>6.4417576370314427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="18">
+      <c r="B41" s="27"/>
+      <c r="C41" s="10">
         <f>AVERAGE(depots!B4:K4)</f>
         <v>1.1135310000000001E-4</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="11">
         <f>AVERAGE(depots!B27:K27)</f>
         <v>1.1895799999999999E-5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="E41" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6139259660735308</v>
+      </c>
+      <c r="F41" s="15">
+        <f t="shared" si="1"/>
+        <v>8.3607071403352471</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="18">
+        <v>1.5358198914555294</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K41" s="18">
+        <v>6.617344703853858</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="18">
+      <c r="B42" s="27"/>
+      <c r="C42" s="10">
         <f>AVERAGE(depots!B5:K5)</f>
         <v>2.8433029999999995E-4</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="11">
         <f>AVERAGE(depots!B28:K28)</f>
         <v>3.6760300000000001E-5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="E42" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5420569770650403</v>
+      </c>
+      <c r="F42" s="15">
+        <f t="shared" si="1"/>
+        <v>6.7347110877767582</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1.5378036221458087</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K42" s="18">
+        <v>6.6543300459656018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="18">
+      <c r="B43" s="27"/>
+      <c r="C43" s="10">
         <f>AVERAGE(depots!B6:K6)</f>
         <v>1.550175E-4</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="11">
         <f>AVERAGE(depots!B29:K29)</f>
         <v>1.8846699999999997E-5</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="E43" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5664041245983937</v>
+      </c>
+      <c r="F43" s="15">
+        <f t="shared" si="1"/>
+        <v>7.2251800049876129</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" s="18">
+        <v>1.541441103223754</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K43" s="18">
+        <v>6.7229798137616381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="18">
+      <c r="B44" s="27"/>
+      <c r="C44" s="10">
         <f>AVERAGE(depots!B7:K7)</f>
         <v>9.4605700000000001E-5</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D44" s="11">
         <f>AVERAGE(depots!B30:K30)</f>
         <v>1.0729699999999998E-5</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="E44" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5925510322265832</v>
+      </c>
+      <c r="F44" s="15">
+        <f t="shared" si="1"/>
+        <v>7.8171803498699894</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1.5420569770650403</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K44" s="18">
+        <v>6.7347110877767582</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="18">
+      <c r="B45" s="27"/>
+      <c r="C45" s="10">
         <f>AVERAGE(depots!B8:K8)</f>
         <v>1.6644649999999998E-4</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="11">
         <f>AVERAGE(depots!B31:K31)</f>
         <v>1.6840499999999999E-5</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="E45" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6324780262648197</v>
+      </c>
+      <c r="F45" s="15">
+        <f t="shared" si="1"/>
+        <v>8.883702977940084</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1.5422641646791828</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K45" s="18">
+        <v>6.7386647304913057</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="18">
+      <c r="B46" s="27"/>
+      <c r="C46" s="10">
         <f>AVERAGE(depots!B9:K9)</f>
         <v>2.3054320000000001E-4</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D46" s="11">
         <f>AVERAGE(depots!B32:K32)</f>
         <v>2.28116E-5</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="E46" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6398473603026269</v>
+      </c>
+      <c r="F46" s="15">
+        <f t="shared" si="1"/>
+        <v>9.1064020059969479</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1.5442774552238347</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K46" s="18">
+        <v>6.7772703936880214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="18">
+      <c r="B47" s="27"/>
+      <c r="C47" s="10">
         <f>AVERAGE(depots!B10:K10)</f>
         <v>8.3689799999999993E-5</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="11">
         <f>AVERAGE(depots!B33:K33)</f>
         <v>9.2368000000000011E-6</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="E47" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6024044783732534</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="1"/>
+        <v>8.0604754893469579</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1.5457520677208942</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="18">
+        <v>6.8057638037684249</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="18">
+      <c r="B48" s="27"/>
+      <c r="C48" s="10">
         <f>AVERAGE(depots!B11:K11)</f>
         <v>2.0134039999999999E-4</v>
       </c>
-      <c r="D48" s="19">
+      <c r="D48" s="11">
         <f>AVERAGE(depots!B34:K34)</f>
         <v>2.0572600000000004E-5</v>
       </c>
+      <c r="E48" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6291772000739029</v>
+      </c>
+      <c r="F48" s="15">
+        <f t="shared" si="1"/>
+        <v>8.7868232503426871</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" s="18">
+        <v>1.5466761415930717</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K48" s="18">
+        <v>6.8237138324393749</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="18">
+      <c r="B49" s="27"/>
+      <c r="C49" s="10">
         <f>AVERAGE(depots!B12:K12)</f>
         <v>3.688133E-4</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D49" s="11">
         <f>AVERAGE(depots!B35:K35)</f>
         <v>3.52206E-5</v>
       </c>
+      <c r="E49" s="15">
+        <f t="shared" si="0"/>
+        <v>1.65131044696992</v>
+      </c>
+      <c r="F49" s="15">
+        <f t="shared" si="1"/>
+        <v>9.4715223477169612</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="18">
+        <v>1.5485278106480898</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" s="18">
+        <v>6.8599034322402268</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="18">
+      <c r="B50" s="27"/>
+      <c r="C50" s="10">
         <f>AVERAGE(depots!B13:K13)</f>
         <v>2.7126859999999995E-4</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D50" s="11">
         <f>AVERAGE(depots!B36:K36)</f>
         <v>1.1988799999999999E-5</v>
       </c>
+      <c r="E50" s="15">
+        <f t="shared" si="0"/>
+        <v>1.830700980804032</v>
+      </c>
+      <c r="F50" s="15">
+        <f t="shared" si="1"/>
+        <v>21.62683504604297</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="18">
+        <v>1.5518256780510131</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K50" s="18">
+        <v>6.9250985701391867</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="18">
+      <c r="B51" s="27"/>
+      <c r="C51" s="10">
         <f>AVERAGE(depots!B14:K14)</f>
         <v>1.2637439999999998E-4</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D51" s="11">
         <f>AVERAGE(depots!B37:K37)</f>
         <v>1.5114399999999997E-5</v>
       </c>
+      <c r="E51" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5727039878774858</v>
+      </c>
+      <c r="F51" s="15">
+        <f t="shared" si="1"/>
+        <v>7.3611919758640774</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H51" s="18">
+        <v>1.5547322386513693</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="K51" s="18">
+        <v>6.9833586601571342</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="18">
+      <c r="B52" s="27"/>
+      <c r="C52" s="10">
         <f>AVERAGE(depots!B15:K15)</f>
         <v>7.8184999999999998E-5</v>
       </c>
-      <c r="D52" s="19">
+      <c r="D52" s="11">
         <f>AVERAGE(depots!B38:K38)</f>
         <v>1.2595E-6</v>
       </c>
+      <c r="E52" s="15">
+        <f t="shared" si="0"/>
+        <v>1.936584659731007</v>
+      </c>
+      <c r="F52" s="15">
+        <f t="shared" si="1"/>
+        <v>61.076220722508928</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="18">
+        <v>1.5551173296550784</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K52" s="18">
+        <v>6.9911346668072349</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="18">
+      <c r="B53" s="27"/>
+      <c r="C53" s="10">
         <f>AVERAGE(depots!B16:K16)</f>
         <v>1.5655679999999997E-4</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D53" s="11">
         <f>AVERAGE(depots!B39:K39)</f>
         <v>1.1335800000000001E-5</v>
       </c>
+      <c r="E53" s="15">
+        <f t="shared" si="0"/>
+        <v>1.7299273464107408</v>
+      </c>
+      <c r="F53" s="15">
+        <f t="shared" si="1"/>
+        <v>12.81082940771714</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="18">
+        <v>1.5573136320162695</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K53" s="18">
+        <v>7.0357424336748613</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="18">
+      <c r="B54" s="27"/>
+      <c r="C54" s="10">
         <f>AVERAGE(depots!B17:K17)</f>
         <v>1.6887239999999998E-4</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D54" s="11">
         <f>AVERAGE(depots!B40:K40)</f>
         <v>1.5767500000000001E-5</v>
       </c>
+      <c r="E54" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6584161928163954</v>
+      </c>
+      <c r="F54" s="15">
+        <f t="shared" si="1"/>
+        <v>9.7101569684477536</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="18">
+        <v>1.5632253776875213</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K54" s="18">
+        <v>7.1580412314759112</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="18">
+      <c r="B55" s="27"/>
+      <c r="C55" s="10">
         <f>AVERAGE(depots!B18:K18)</f>
         <v>2.4719719999999996E-4</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D55" s="11">
         <f>AVERAGE(depots!B41:K41)</f>
         <v>2.5797500000000002E-5</v>
       </c>
+      <c r="E55" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6220073136951012</v>
+      </c>
+      <c r="F55" s="15">
+        <f t="shared" si="1"/>
+        <v>8.582215330942919</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" s="18">
+        <v>1.5647951362046149</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K55" s="18">
+        <v>7.1910737511440832</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="18">
+      <c r="B56" s="27"/>
+      <c r="C56" s="10">
         <f>AVERAGE(depots!B19:K19)</f>
         <v>1.6570010000000002E-4</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D56" s="11">
         <f>AVERAGE(depots!B42:K42)</f>
         <v>1.7867E-5</v>
       </c>
+      <c r="E56" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6106709753545163</v>
+      </c>
+      <c r="F56" s="15">
+        <f t="shared" si="1"/>
+        <v>8.2740863043599955</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="18">
+        <v>1.5664041245983937</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56" s="18">
+        <v>7.2251800049876129</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="18">
+      <c r="B57" s="27"/>
+      <c r="C57" s="10">
         <f>AVERAGE(depots!B20:K20)</f>
         <v>3.3443259999999995E-4</v>
       </c>
-      <c r="D57" s="19">
+      <c r="D57" s="11">
         <f>AVERAGE(depots!B43:K43)</f>
         <v>3.81597E-5</v>
       </c>
+      <c r="E57" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5903329188499067</v>
+      </c>
+      <c r="F57" s="15">
+        <f t="shared" si="1"/>
+        <v>7.7640259226356596</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="18">
+        <v>1.5727039878774858</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K57" s="18">
+        <v>7.3611919758640774</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="18">
+      <c r="B58" s="27"/>
+      <c r="C58" s="10">
         <f>AVERAGE(depots!B21:K21)</f>
         <v>1.7218430000000002E-4</v>
       </c>
-      <c r="D58" s="19">
+      <c r="D58" s="11">
         <f>AVERAGE(depots!B44:K44)</f>
         <v>1.6047799999999999E-5</v>
       </c>
+      <c r="E58" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6589784632907991</v>
+      </c>
+      <c r="F58" s="15">
+        <f t="shared" si="1"/>
+        <v>9.7294644748812953</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" s="18">
+        <v>1.5796602549880003</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K58" s="18">
+        <v>7.5161117821152299</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="20">
+      <c r="B59" s="29"/>
+      <c r="C59" s="12">
         <f>AVERAGE(depots!B22:K22)</f>
         <v>1.9592799999999993E-5</v>
       </c>
-      <c r="D59" s="21">
+      <c r="D59" s="13">
         <f>AVERAGE(depots!B45:K45)</f>
         <v>1.0727999999999999E-6</v>
       </c>
+      <c r="E59" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7923505729327962</v>
+      </c>
+      <c r="F59" s="15">
+        <f t="shared" si="1"/>
+        <v>17.263236390753164</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" s="18">
+        <v>1.5818756921119126</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K59" s="18">
+        <v>7.5665330250797442</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="16">
+      <c r="B60" s="31"/>
+      <c r="C60" s="8">
         <f>AVERAGE(gripper!B1:K1)</f>
         <v>7.272700000000001E-5</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="9">
         <f>AVERAGE(gripper!B22:K22)</f>
         <v>5.4581999999999997E-6</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="E60" s="14">
+        <f t="shared" si="0"/>
+        <v>1.7207553347692401</v>
+      </c>
+      <c r="F60" s="15">
+        <f t="shared" si="1"/>
+        <v>12.324356014803417</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" s="18">
+        <v>1.5881826201117357</v>
+      </c>
       <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+      <c r="J60" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K60" s="18">
+        <v>7.7130431966841551</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="18">
+      <c r="B61" s="27"/>
+      <c r="C61" s="10">
         <f>AVERAGE(gripper!B2:K2)</f>
         <v>9.5958599999999993E-5</v>
       </c>
-      <c r="D61" s="19">
+      <c r="D61" s="11">
         <f>AVERAGE(gripper!B23:K23)</f>
         <v>9.0034999999999994E-6</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="E61" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6568856758772927</v>
+      </c>
+      <c r="F61" s="15">
+        <f t="shared" si="1"/>
+        <v>9.6579219192536225</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" s="18">
+        <v>1.5903329188499067</v>
+      </c>
       <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+      <c r="J61" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K61" s="18">
+        <v>7.7640259226356596</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="18">
+      <c r="B62" s="27"/>
+      <c r="C62" s="10">
         <f>AVERAGE(gripper!B3:K3)</f>
         <v>8.9147900000000001E-5</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="11">
         <f>AVERAGE(gripper!B24:K24)</f>
         <v>9.0968000000000007E-6</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
+      <c r="E62" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6296268399211358</v>
+      </c>
+      <c r="F62" s="15">
+        <f t="shared" si="1"/>
+        <v>8.7999186527130409</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="18">
+        <v>1.5925510322265832</v>
+      </c>
       <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
+      <c r="J62" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K62" s="18">
+        <v>7.8171803498699894</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="18">
+      <c r="B63" s="27"/>
+      <c r="C63" s="10">
         <f>AVERAGE(gripper!B4:K4)</f>
         <v>9.3019700000000007E-5</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D63" s="11">
         <f>AVERAGE(gripper!B25:K25)</f>
         <v>1.3621600000000004E-5</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
+      <c r="E63" s="15">
+        <f t="shared" si="0"/>
+        <v>1.4890684941012535</v>
+      </c>
+      <c r="F63" s="15">
+        <f t="shared" si="1"/>
+        <v>5.8288380219651135</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" s="18">
+        <v>1.6001163705592454</v>
+      </c>
       <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
+      <c r="J63" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K63" s="18">
+        <v>8.0029101106091307</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="18">
+      <c r="B64" s="27"/>
+      <c r="C64" s="10">
         <f>AVERAGE(gripper!B5:K5)</f>
         <v>8.96142E-5</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D64" s="11">
         <f>AVERAGE(gripper!B26:K26)</f>
         <v>1.2408800000000001E-5</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
+      <c r="E64" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5134900953706518</v>
+      </c>
+      <c r="F64" s="15">
+        <f t="shared" si="1"/>
+        <v>6.2218264457481789</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" s="18">
+        <v>1.6024044783732534</v>
+      </c>
       <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="J64" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K64" s="18">
+        <v>8.0604754893469579</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="18">
+      <c r="B65" s="27"/>
+      <c r="C65" s="10">
         <f>AVERAGE(gripper!B6:K6)</f>
         <v>1.1191270000000002E-4</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D65" s="11">
         <f>AVERAGE(gripper!B27:K27)</f>
         <v>1.44615E-5</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
+      <c r="E65" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5422641646791828</v>
+      </c>
+      <c r="F65" s="15">
+        <f t="shared" si="1"/>
+        <v>6.7386647304913057</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" s="18">
+        <v>1.6106709753545163</v>
+      </c>
       <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+      <c r="J65" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K65" s="18">
+        <v>8.2740863043599955</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="18">
+      <c r="B66" s="27"/>
+      <c r="C66" s="10">
         <f>AVERAGE(gripper!B7:K7)</f>
         <v>1.154583E-4</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D66" s="11">
         <f>AVERAGE(gripper!B28:K28)</f>
         <v>1.61409E-5</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
+      <c r="E66" s="15">
+        <f t="shared" si="0"/>
+        <v>1.5093921543596009</v>
+      </c>
+      <c r="F66" s="15">
+        <f t="shared" si="1"/>
+        <v>6.1531513112651712</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66" s="18">
+        <v>1.6129799551057378</v>
+      </c>
       <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="J66" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K66" s="18">
+        <v>8.3353819854287909</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="18">
+      <c r="B67" s="27"/>
+      <c r="C67" s="10">
         <f>AVERAGE(gripper!B8:K8)</f>
         <v>1.251616E-4</v>
       </c>
-      <c r="D67" s="19">
+      <c r="D67" s="11">
         <f>AVERAGE(gripper!B29:K29)</f>
         <v>1.8566599999999999E-5</v>
       </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
+      <c r="E67" s="15">
+        <f t="shared" si="0"/>
+        <v>1.483285813083306</v>
+      </c>
+      <c r="F67" s="15">
+        <f t="shared" si="1"/>
+        <v>5.7412234873374777</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H67" s="18">
+        <v>1.6139259660735308</v>
+      </c>
       <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="J67" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K67" s="18">
+        <v>8.3607071403352471</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="18">
+      <c r="B68" s="27"/>
+      <c r="C68" s="10">
         <f>AVERAGE(gripper!B9:K9)</f>
         <v>1.3421140000000002E-4</v>
       </c>
-      <c r="D68" s="19">
+      <c r="D68" s="11">
         <f>AVERAGE(gripper!B30:K30)</f>
         <v>1.95929E-5</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+      <c r="E68" s="15">
+        <f t="shared" ref="E68:E107" si="2">ABS(C68 - D68) / (ABS(C68 + D68) / 2)</f>
+        <v>1.4904459758277238</v>
+      </c>
+      <c r="F68" s="15">
+        <f t="shared" ref="F68:F107" si="3">(C68 - D68)/D68</f>
+        <v>5.8500017863613865</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="18">
+        <v>1.6150230137619983</v>
+      </c>
       <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="J68" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68" s="18">
+        <v>8.3902314761410359</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="18">
+      <c r="B69" s="27"/>
+      <c r="C69" s="10">
         <f>AVERAGE(gripper!B10:K10)</f>
         <v>1.479265E-4</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D69" s="11">
         <f>AVERAGE(gripper!B31:K31)</f>
         <v>2.2298400000000003E-5</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
+      <c r="E69" s="15">
+        <f t="shared" si="2"/>
+        <v>1.4760249528711722</v>
+      </c>
+      <c r="F69" s="15">
+        <f t="shared" si="3"/>
+        <v>5.6339513148925473</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" s="18">
+        <v>1.6169680740638799</v>
+      </c>
       <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
+      <c r="J69" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K69" s="18">
+        <v>8.4429937275439961</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="18">
+      <c r="B70" s="27"/>
+      <c r="C70" s="10">
         <f>AVERAGE(gripper!B11:K11)</f>
         <v>1.6150149999999999E-4</v>
       </c>
-      <c r="D70" s="19">
+      <c r="D70" s="11">
         <f>AVERAGE(gripper!B32:K32)</f>
         <v>2.5284199999999998E-5</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+      <c r="E70" s="15">
+        <f t="shared" si="2"/>
+        <v>1.4585409910930012</v>
+      </c>
+      <c r="F70" s="15">
+        <f t="shared" si="3"/>
+        <v>5.387447496855744</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="18">
+        <v>1.6198399022096213</v>
+      </c>
       <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
+      <c r="J70" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="18">
+        <v>8.5218828152911748</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="18">
+      <c r="B71" s="27"/>
+      <c r="C71" s="10">
         <f>AVERAGE(gripper!B12:K12)</f>
         <v>1.696651E-4</v>
       </c>
-      <c r="D71" s="19">
+      <c r="D71" s="11">
         <f>AVERAGE(gripper!B33:K33)</f>
         <v>2.5051000000000008E-5</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
+      <c r="E71" s="15">
+        <f t="shared" si="2"/>
+        <v>1.4853841053718722</v>
+      </c>
+      <c r="F71" s="15">
+        <f t="shared" si="3"/>
+        <v>5.7727875134725144</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" s="18">
+        <v>1.6220073136951012</v>
+      </c>
       <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
+      <c r="J71" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K71" s="18">
+        <v>8.582215330942919</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="18">
+      <c r="B72" s="27"/>
+      <c r="C72" s="10">
         <f>AVERAGE(gripper!B13:K13)</f>
         <v>1.8109450000000001E-4</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D72" s="11">
         <f>AVERAGE(gripper!B34:K34)</f>
         <v>3.2468200000000002E-5</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="E72" s="15">
+        <f t="shared" si="2"/>
+        <v>1.3918750793092614</v>
+      </c>
+      <c r="F72" s="15">
+        <f t="shared" si="3"/>
+        <v>4.5775959246277891</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H72" s="18">
+        <v>1.6277736479974168</v>
+      </c>
       <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+      <c r="J72" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K72" s="18">
+        <v>8.7461494289158868</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="18">
+      <c r="B73" s="27"/>
+      <c r="C73" s="10">
         <f>AVERAGE(gripper!B14:K14)</f>
         <v>2.0297349999999999E-4</v>
       </c>
-      <c r="D73" s="19">
+      <c r="D73" s="11">
         <f>AVERAGE(gripper!B35:K35)</f>
         <v>2.93429E-5</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
+      <c r="E73" s="15">
+        <f t="shared" si="2"/>
+        <v>1.4947769507447601</v>
+      </c>
+      <c r="F73" s="15">
+        <f t="shared" si="3"/>
+        <v>5.9172951548756254</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" s="18">
+        <v>1.6291772000739029</v>
+      </c>
       <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
+      <c r="J73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K73" s="18">
+        <v>8.7868232503426871</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="18">
+      <c r="B74" s="27"/>
+      <c r="C74" s="10">
         <f>AVERAGE(gripper!B15:K15)</f>
         <v>2.2009360000000002E-4</v>
       </c>
-      <c r="D74" s="19">
+      <c r="D74" s="11">
         <f>AVERAGE(gripper!B36:K36)</f>
         <v>3.0322299999999999E-5</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
+      <c r="E74" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5156489663795312</v>
+      </c>
+      <c r="F74" s="15">
+        <f t="shared" si="3"/>
+        <v>6.258473136932226</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="18">
+        <v>1.6296268399211358</v>
+      </c>
       <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
+      <c r="J74" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K74" s="18">
+        <v>8.7999186527130409</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="18">
+      <c r="B75" s="27"/>
+      <c r="C75" s="10">
         <f>AVERAGE(gripper!B16:K16)</f>
         <v>2.6203190000000001E-4</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D75" s="11">
         <f>AVERAGE(gripper!B37:K37)</f>
         <v>3.2608300000000004E-5</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="E75" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5573136320162695</v>
+      </c>
+      <c r="F75" s="15">
+        <f t="shared" si="3"/>
+        <v>7.0357424336748613</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75" s="18">
+        <v>1.6324780262648197</v>
+      </c>
       <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
+      <c r="J75" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K75" s="18">
+        <v>8.883702977940084</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="18">
+      <c r="B76" s="27"/>
+      <c r="C76" s="10">
         <f>AVERAGE(gripper!B17:K17)</f>
         <v>3.2416960000000001E-4</v>
       </c>
-      <c r="D76" s="19">
+      <c r="D76" s="11">
         <f>AVERAGE(gripper!B38:K38)</f>
         <v>3.32613E-5</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="E76" s="15">
+        <f t="shared" si="2"/>
+        <v>1.6277736479974168</v>
+      </c>
+      <c r="F76" s="15">
+        <f t="shared" si="3"/>
+        <v>8.7461494289158868</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H76" s="18">
+        <v>1.6369061035071535</v>
+      </c>
       <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
+      <c r="J76" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K76" s="18">
+        <v>9.0164341472999752</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="18">
+      <c r="B77" s="27"/>
+      <c r="C77" s="10">
         <f>AVERAGE(gripper!B18:K18)</f>
         <v>2.5713370000000001E-4</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D77" s="11">
         <f>AVERAGE(gripper!B39:K39)</f>
         <v>3.9092499999999992E-5</v>
       </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="E77" s="15">
+        <f t="shared" si="2"/>
+        <v>1.4721263682955799</v>
+      </c>
+      <c r="F77" s="15">
+        <f t="shared" si="3"/>
+        <v>5.5775711453603654</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H77" s="18">
+        <v>1.6384622955499573</v>
+      </c>
       <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
+      <c r="J77" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K77" s="18">
+        <v>9.0638529557647249</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="18">
+      <c r="B78" s="27"/>
+      <c r="C78" s="10">
         <f>AVERAGE(gripper!B19:K19)</f>
         <v>2.5386830000000002E-4</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D78" s="11">
         <f>AVERAGE(gripper!B40:K40)</f>
         <v>3.7739900000000001E-5</v>
       </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
+      <c r="E78" s="15">
+        <f t="shared" si="2"/>
+        <v>1.4823204560091248</v>
+      </c>
+      <c r="F78" s="15">
+        <f t="shared" si="3"/>
+        <v>5.7267878293265229</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" s="18">
+        <v>1.6398473603026269</v>
+      </c>
       <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
+      <c r="J78" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K78" s="18">
+        <v>9.1064020059969479</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="20">
+      <c r="B79" s="29"/>
+      <c r="C79" s="12">
         <f>AVERAGE(gripper!B20:K20)</f>
         <v>2.697291E-4</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D79" s="13">
         <f>AVERAGE(gripper!B41:K41)</f>
         <v>4.3804200000000003E-5</v>
       </c>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
+      <c r="E79" s="16">
+        <f t="shared" si="2"/>
+        <v>1.441154097507346</v>
+      </c>
+      <c r="F79" s="15">
+        <f t="shared" si="3"/>
+        <v>5.1576081745586038</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H79" s="18">
+        <v>1.6425162210957023</v>
+      </c>
       <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
+      <c r="J79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="18">
+        <v>9.1893188895456017</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="16">
+      <c r="B80" s="31"/>
+      <c r="C80" s="8">
         <f>AVERAGE(logistics!B1:K1)</f>
         <v>6.880829999999999E-5</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D80" s="9">
         <f>AVERAGE(logistics!B30:K30)</f>
         <v>7.3707000000000004E-6</v>
       </c>
+      <c r="E80" s="14">
+        <f t="shared" si="2"/>
+        <v>1.6129799551057378</v>
+      </c>
+      <c r="F80" s="15">
+        <f t="shared" si="3"/>
+        <v>8.3353819854287909</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H80" s="18">
+        <v>1.6458302630266599</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K80" s="18">
+        <v>9.2940197380588092</v>
+      </c>
     </row>
     <row r="81" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="18">
+      <c r="B81" s="27"/>
+      <c r="C81" s="10">
         <f>AVERAGE(logistics!B2:K2)</f>
         <v>6.8015400000000006E-5</v>
       </c>
-      <c r="D81" s="19">
+      <c r="D81" s="11">
         <f>AVERAGE(logistics!B31:K31)</f>
         <v>8.3035999999999996E-6</v>
       </c>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
+      <c r="E81" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5647951362046149</v>
+      </c>
+      <c r="F81" s="15">
+        <f t="shared" si="3"/>
+        <v>7.1910737511440832</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H81" s="18">
+        <v>1.6470632386562367</v>
+      </c>
       <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
+      <c r="J81" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K81" s="18">
+        <v>9.3334751097349358</v>
+      </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
@@ -2470,25 +5255,39 @@
       <c r="EU81" s="3"/>
     </row>
     <row r="82" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="18">
+      <c r="B82" s="27"/>
+      <c r="C82" s="10">
         <f>AVERAGE(logistics!B3:K3)</f>
         <v>4.3897299999999997E-5</v>
       </c>
-      <c r="D82" s="19">
+      <c r="D82" s="11">
         <f>AVERAGE(logistics!B32:K32)</f>
         <v>6.251E-6</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
+      <c r="E82" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5013988510079106</v>
+      </c>
+      <c r="F82" s="15">
+        <f t="shared" si="3"/>
+        <v>6.022444408894577</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82" s="18">
+        <v>1.65131044696992</v>
+      </c>
       <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+      <c r="J82" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K82" s="18">
+        <v>9.4715223477169612</v>
+      </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
@@ -2711,25 +5510,39 @@
       <c r="HW82" s="3"/>
     </row>
     <row r="83" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="B83" s="5"/>
-      <c r="C83" s="18">
+      <c r="B83" s="27"/>
+      <c r="C83" s="10">
         <f>AVERAGE(logistics!B4:K4)</f>
         <v>8.6348700000000002E-5</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D83" s="11">
         <f>AVERAGE(logistics!B33:K33)</f>
         <v>1.1102700000000001E-5</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+      <c r="E83" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5442774552238347</v>
+      </c>
+      <c r="F83" s="15">
+        <f t="shared" si="3"/>
+        <v>6.7772703936880214</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H83" s="18">
+        <v>1.6568856758772927</v>
+      </c>
       <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
+      <c r="J83" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K83" s="18">
+        <v>9.6579219192536225</v>
+      </c>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
@@ -3032,25 +5845,39 @@
       <c r="KY83" s="3"/>
     </row>
     <row r="84" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="18">
+      <c r="B84" s="27"/>
+      <c r="C84" s="10">
         <f>AVERAGE(logistics!B5:K5)</f>
         <v>7.7531699999999995E-5</v>
       </c>
-      <c r="D84" s="19">
+      <c r="D84" s="11">
         <f>AVERAGE(logistics!B34:K34)</f>
         <v>8.2105000000000021E-6</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+      <c r="E84" s="15">
+        <f t="shared" si="2"/>
+        <v>1.6169680740638799</v>
+      </c>
+      <c r="F84" s="15">
+        <f t="shared" si="3"/>
+        <v>8.4429937275439961</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H84" s="18">
+        <v>1.6584161928163954</v>
+      </c>
       <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="J84" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K84" s="18">
+        <v>9.7101569684477536</v>
+      </c>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
@@ -3433,25 +6260,39 @@
       <c r="OA84" s="3"/>
     </row>
     <row r="85" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="5"/>
-      <c r="C85" s="18">
+      <c r="B85" s="27"/>
+      <c r="C85" s="10">
         <f>AVERAGE(logistics!B6:K6)</f>
         <v>5.5186599999999991E-5</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="11">
         <f>AVERAGE(logistics!B35:K35)</f>
         <v>5.0383999999999991E-6</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
+      <c r="E85" s="15">
+        <f t="shared" si="2"/>
+        <v>1.6653615608136159</v>
+      </c>
+      <c r="F85" s="15">
+        <f t="shared" si="3"/>
+        <v>9.9531994283899667</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H85" s="18">
+        <v>1.6589784632907991</v>
+      </c>
       <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="J85" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K85" s="18">
+        <v>9.7294644748812953</v>
+      </c>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -3914,25 +6755,39 @@
       <c r="RC85" s="3"/>
     </row>
     <row r="86" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="18">
+      <c r="B86" s="27"/>
+      <c r="C86" s="10">
         <f>AVERAGE(logistics!B7:K7)</f>
         <v>7.04879E-5</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="11">
         <f>AVERAGE(logistics!B36:K36)</f>
         <v>1.01696E-5</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
+      <c r="E86" s="15">
+        <f t="shared" si="2"/>
+        <v>1.495665003254502</v>
+      </c>
+      <c r="F86" s="15">
+        <f t="shared" si="3"/>
+        <v>5.9312362334801767</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H86" s="18">
+        <v>1.6653615608136159</v>
+      </c>
       <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="J86" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K86" s="18">
+        <v>9.9531994283899667</v>
+      </c>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
@@ -4475,25 +7330,39 @@
       <c r="UE86" s="3"/>
     </row>
     <row r="87" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B87" s="5"/>
-      <c r="C87" s="18">
+      <c r="B87" s="27"/>
+      <c r="C87" s="10">
         <f>AVERAGE(logistics!B8:K8)</f>
         <v>4.40374E-5</v>
       </c>
-      <c r="D87" s="19">
+      <c r="D87" s="11">
         <f>AVERAGE(logistics!B37:K37)</f>
         <v>6.2508999999999997E-6</v>
       </c>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
+      <c r="E87" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5027948846948496</v>
+      </c>
+      <c r="F87" s="15">
+        <f t="shared" si="3"/>
+        <v>6.0449695243884882</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H87" s="18">
+        <v>1.6832407730948329</v>
+      </c>
       <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
+      <c r="J87" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K87" s="18">
+        <v>10.627887872694982</v>
+      </c>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
@@ -5116,25 +7985,39 @@
       <c r="XG87" s="3"/>
     </row>
     <row r="88" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="B88" s="5"/>
-      <c r="C88" s="18">
+      <c r="B88" s="27"/>
+      <c r="C88" s="10">
         <f>AVERAGE(logistics!B9:K9)</f>
         <v>8.1730299999999986E-5</v>
       </c>
-      <c r="D88" s="19">
+      <c r="D88" s="11">
         <f>AVERAGE(logistics!B38:K38)</f>
         <v>1.0729500000000001E-5</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
+      <c r="E88" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5358198914555294</v>
+      </c>
+      <c r="F88" s="15">
+        <f t="shared" si="3"/>
+        <v>6.617344703853858</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H88" s="18">
+        <v>1.6914171580507478</v>
+      </c>
       <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
+      <c r="J88" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K88" s="18">
+        <v>10.962483509234831</v>
+      </c>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
@@ -5837,25 +8720,39 @@
       <c r="AAI88" s="3"/>
     </row>
     <row r="89" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B89" s="5"/>
-      <c r="C89" s="18">
+      <c r="B89" s="27"/>
+      <c r="C89" s="10">
         <f>AVERAGE(logistics!B10:K10)</f>
         <v>8.2850000000000008E-5</v>
       </c>
-      <c r="D89" s="19">
+      <c r="D89" s="11">
         <f>AVERAGE(logistics!B39:K39)</f>
         <v>1.0589599999999999E-5</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
+      <c r="E89" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5466761415930717</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="3"/>
+        <v>6.8237138324393749</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H89" s="18">
+        <v>1.7008359815625984</v>
+      </c>
       <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
+      <c r="J89" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K89" s="18">
+        <v>11.370591894349012</v>
+      </c>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
@@ -6638,25 +9535,39 @@
       <c r="ADK89" s="3"/>
     </row>
     <row r="90" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="18">
+      <c r="B90" s="27"/>
+      <c r="C90" s="10">
         <f>AVERAGE(logistics!B11:K11)</f>
         <v>1.2077629999999999E-4</v>
       </c>
-      <c r="D90" s="19">
+      <c r="D90" s="11">
         <f>AVERAGE(logistics!B40:K40)</f>
         <v>1.7306899999999999E-5</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
+      <c r="E90" s="15">
+        <f t="shared" si="2"/>
+        <v>1.4986529860258164</v>
+      </c>
+      <c r="F90" s="15">
+        <f t="shared" si="3"/>
+        <v>5.9785056827045864</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H90" s="18">
+        <v>1.7011027255775244</v>
+      </c>
       <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+      <c r="J90" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K90" s="18">
+        <v>11.382524172322199</v>
+      </c>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
@@ -7519,25 +10430,39 @@
       <c r="AGM90" s="3"/>
     </row>
     <row r="91" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="18">
+      <c r="B91" s="27"/>
+      <c r="C91" s="10">
         <f>AVERAGE(logistics!B12:K12)</f>
         <v>1.2357539999999998E-4</v>
       </c>
-      <c r="D91" s="19">
+      <c r="D91" s="11">
         <f>AVERAGE(logistics!B41:K41)</f>
         <v>1.6001000000000001E-5</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
+      <c r="E91" s="15">
+        <f t="shared" si="2"/>
+        <v>1.541441103223754</v>
+      </c>
+      <c r="F91" s="15">
+        <f t="shared" si="3"/>
+        <v>6.7229798137616381</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H91" s="18">
+        <v>1.7166140410297874</v>
+      </c>
       <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
+      <c r="J91" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="K91" s="18">
+        <v>12.115025368707306</v>
+      </c>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
@@ -8480,25 +11405,39 @@
       <c r="AJO91" s="3"/>
     </row>
     <row r="92" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="18">
+      <c r="B92" s="27"/>
+      <c r="C92" s="10">
         <f>AVERAGE(logistics!B13:K13)</f>
         <v>1.064082E-4</v>
       </c>
-      <c r="D92" s="19">
+      <c r="D92" s="11">
         <f>AVERAGE(logistics!B42:K42)</f>
         <v>1.3901699999999999E-5</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
+      <c r="E92" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5378036221458087</v>
+      </c>
+      <c r="F92" s="15">
+        <f t="shared" si="3"/>
+        <v>6.6543300459656018</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H92" s="18">
+        <v>1.7207553347692401</v>
+      </c>
       <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
+      <c r="J92" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K92" s="18">
+        <v>12.324356014803417</v>
+      </c>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
@@ -9521,25 +12460,39 @@
       <c r="AMQ92" s="3"/>
     </row>
     <row r="93" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="18">
+      <c r="B93" s="27"/>
+      <c r="C93" s="10">
         <f>AVERAGE(logistics!B14:K14)</f>
         <v>2.9506000000000004E-4</v>
       </c>
-      <c r="D93" s="19">
+      <c r="D93" s="11">
         <f>AVERAGE(logistics!B43:K43)</f>
         <v>1.8659899999999997E-5</v>
       </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
+      <c r="E93" s="15">
+        <f t="shared" si="2"/>
+        <v>1.7620820355992717</v>
+      </c>
+      <c r="F93" s="15">
+        <f t="shared" si="3"/>
+        <v>14.812517751970807</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H93" s="18">
+        <v>1.7299273464107408</v>
+      </c>
       <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
+      <c r="J93" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K93" s="18">
+        <v>12.81082940771714</v>
+      </c>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
@@ -10642,25 +13595,39 @@
       <c r="APS93" s="3"/>
     </row>
     <row r="94" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B94" s="5"/>
-      <c r="C94" s="18">
+      <c r="B94" s="27"/>
+      <c r="C94" s="10">
         <f>AVERAGE(logistics!B15:K15)</f>
         <v>9.8944200000000007E-5</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D94" s="11">
         <f>AVERAGE(logistics!B44:K44)</f>
         <v>1.3388399999999999E-5</v>
       </c>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
+      <c r="E94" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5232586088099092</v>
+      </c>
+      <c r="F94" s="15">
+        <f t="shared" si="3"/>
+        <v>6.3902930895401999</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H94" s="18">
+        <v>1.7357249467658158</v>
+      </c>
       <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
+      <c r="J94" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K94" s="18">
+        <v>13.135745697704772</v>
+      </c>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
@@ -11843,25 +14810,39 @@
       <c r="ASU94" s="3"/>
     </row>
     <row r="95" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="5"/>
-      <c r="C95" s="18">
+      <c r="B95" s="27"/>
+      <c r="C95" s="10">
         <f>AVERAGE(logistics!B16:K16)</f>
         <v>1.053818E-4</v>
       </c>
-      <c r="D95" s="19">
+      <c r="D95" s="11">
         <f>AVERAGE(logistics!B45:K45)</f>
         <v>1.4601300000000002E-5</v>
       </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
+      <c r="E95" s="15">
+        <f t="shared" si="2"/>
+        <v>1.513221445353554</v>
+      </c>
+      <c r="F95" s="15">
+        <f t="shared" si="3"/>
+        <v>6.2172888715388348</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H95" s="18">
+        <v>1.7467053085771533</v>
+      </c>
       <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
+      <c r="J95" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K95" s="18">
+        <v>13.791882480957563</v>
+      </c>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
@@ -13124,25 +16105,39 @@
       <c r="AVW95" s="3"/>
     </row>
     <row r="96" spans="1:1351" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B96" s="5"/>
-      <c r="C96" s="18">
+      <c r="B96" s="27"/>
+      <c r="C96" s="10">
         <f>AVERAGE(logistics!B17:K17)</f>
         <v>1.5151839999999998E-4</v>
       </c>
-      <c r="D96" s="19">
+      <c r="D96" s="11">
         <f>AVERAGE(logistics!B46:K46)</f>
         <v>2.0805700000000003E-5</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
+      <c r="E96" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5170565231444699</v>
+      </c>
+      <c r="F96" s="15">
+        <f t="shared" si="3"/>
+        <v>6.2825427647231269</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H96" s="18">
+        <v>1.7564359074529106</v>
+      </c>
       <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
+      <c r="J96" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K96" s="18">
+        <v>14.422782020821312</v>
+      </c>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
@@ -14485,25 +17480,39 @@
       <c r="AYY96" s="3"/>
     </row>
     <row r="97" spans="1:1671" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B97" s="5"/>
-      <c r="C97" s="18">
+      <c r="B97" s="27"/>
+      <c r="C97" s="10">
         <f>AVERAGE(logistics!B18:K18)</f>
         <v>1.1629829999999998E-4</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D97" s="11">
         <f>AVERAGE(logistics!B47:K47)</f>
         <v>1.56278E-5</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
+      <c r="E97" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5261650272387342</v>
+      </c>
+      <c r="F97" s="15">
+        <f t="shared" si="3"/>
+        <v>6.4417576370314427</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H97" s="18">
+        <v>1.7620820355992717</v>
+      </c>
       <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+      <c r="J97" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K97" s="18">
+        <v>14.812517751970807</v>
+      </c>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
@@ -15926,25 +18935,39 @@
       <c r="BCA97" s="3"/>
     </row>
     <row r="98" spans="1:1671" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B98" s="5"/>
-      <c r="C98" s="18">
+      <c r="B98" s="27"/>
+      <c r="C98" s="10">
         <f>AVERAGE(logistics!B19:K19)</f>
         <v>1.4508100000000001E-5</v>
       </c>
-      <c r="D98" s="19">
+      <c r="D98" s="11">
         <f>AVERAGE(logistics!B48:K48)</f>
         <v>1.2127999999999998E-6</v>
       </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
+      <c r="E98" s="15">
+        <f t="shared" si="2"/>
+        <v>1.6914171580507478</v>
+      </c>
+      <c r="F98" s="15">
+        <f t="shared" si="3"/>
+        <v>10.962483509234831</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" s="18">
+        <v>1.7621177327892978</v>
+      </c>
       <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
+      <c r="J98" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K98" s="18">
+        <v>14.815040679165195</v>
+      </c>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
@@ -17447,25 +20470,39 @@
       <c r="BFC98" s="3"/>
     </row>
     <row r="99" spans="1:1671" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="5"/>
-      <c r="C99" s="18">
+      <c r="B99" s="27"/>
+      <c r="C99" s="10">
         <f>AVERAGE(logistics!B20:K20)</f>
         <v>1.725575E-4</v>
       </c>
-      <c r="D99" s="19">
+      <c r="D99" s="11">
         <f>AVERAGE(logistics!B49:K49)</f>
         <v>2.3511499999999997E-5</v>
       </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
+      <c r="E99" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5203423284659994</v>
+      </c>
+      <c r="F99" s="15">
+        <f t="shared" si="3"/>
+        <v>6.3392807774918669</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" s="18">
+        <v>1.769703159910629</v>
+      </c>
       <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
+      <c r="J99" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K99" s="18">
+        <v>15.368887903315223</v>
+      </c>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
@@ -19048,25 +22085,39 @@
       <c r="BIE99" s="3"/>
     </row>
     <row r="100" spans="1:1671" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="18">
+      <c r="B100" s="27"/>
+      <c r="C100" s="10">
         <f>AVERAGE(logistics!B21:K21)</f>
         <v>1.424683E-4</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D100" s="11">
         <f>AVERAGE(logistics!B50:K50)</f>
         <v>2.3138399999999995E-5</v>
       </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
+      <c r="E100" s="15">
+        <f t="shared" si="2"/>
+        <v>1.441124060801888</v>
+      </c>
+      <c r="F100" s="15">
+        <f t="shared" si="3"/>
+        <v>5.1572234899560918</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H100" s="18">
+        <v>1.7923505729327962</v>
+      </c>
       <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
+      <c r="J100" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K100" s="18">
+        <v>17.263236390753164</v>
+      </c>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
@@ -20729,105 +23780,250 @@
       <c r="BLG100" s="3"/>
     </row>
     <row r="101" spans="1:1671" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="18">
+      <c r="B101" s="27"/>
+      <c r="C101" s="10">
         <f>AVERAGE(logistics!B22:K22)</f>
         <v>2.4691730000000003E-4</v>
       </c>
-      <c r="D101" s="19">
+      <c r="D101" s="11">
         <f>AVERAGE(logistics!B51:K51)</f>
         <v>3.0929000000000002E-5</v>
       </c>
+      <c r="E101" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5547322386513693</v>
+      </c>
+      <c r="F101" s="15">
+        <f t="shared" si="3"/>
+        <v>6.9833586601571342</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H101" s="18">
+        <v>1.8026789017037725</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K101" s="18">
+        <v>18.271527143007372</v>
+      </c>
     </row>
     <row r="102" spans="1:1671" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B102" s="5"/>
-      <c r="C102" s="18">
+      <c r="B102" s="27"/>
+      <c r="C102" s="10">
         <f>AVERAGE(logistics!B23:K23)</f>
         <v>4.1070480000000002E-4</v>
       </c>
-      <c r="D102" s="19">
+      <c r="D102" s="11">
         <f>AVERAGE(logistics!B52:K52)</f>
         <v>3.3168100000000005E-5</v>
       </c>
+      <c r="E102" s="15">
+        <f t="shared" si="2"/>
+        <v>1.7011027255775244</v>
+      </c>
+      <c r="F102" s="15">
+        <f t="shared" si="3"/>
+        <v>11.382524172322199</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H102" s="18">
+        <v>1.8077768511473731</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K102" s="18">
+        <v>18.80914824190457</v>
+      </c>
     </row>
     <row r="103" spans="1:1671" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B103" s="5"/>
-      <c r="C103" s="18">
+      <c r="B103" s="27"/>
+      <c r="C103" s="10">
         <f>AVERAGE(logistics!B24:K24)</f>
         <v>2.2513200000000001E-4</v>
       </c>
-      <c r="D103" s="19">
+      <c r="D103" s="11">
         <f>AVERAGE(logistics!B53:K53)</f>
         <v>2.8643099999999997E-5</v>
       </c>
+      <c r="E103" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5485278106480898</v>
+      </c>
+      <c r="F103" s="15">
+        <f t="shared" si="3"/>
+        <v>6.8599034322402268</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H103" s="18">
+        <v>1.8162340032772784</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K103" s="18">
+        <v>19.766812529716578</v>
+      </c>
     </row>
     <row r="104" spans="1:1671" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B104" s="5"/>
-      <c r="C104" s="18">
+      <c r="B104" s="27"/>
+      <c r="C104" s="10">
         <f>AVERAGE(logistics!B25:K25)</f>
         <v>2.5013610000000001E-4</v>
       </c>
-      <c r="D104" s="19">
+      <c r="D104" s="11">
         <f>AVERAGE(logistics!B54:K54)</f>
         <v>3.1301699999999999E-5</v>
       </c>
+      <c r="E104" s="15">
+        <f t="shared" si="2"/>
+        <v>1.5551173296550784</v>
+      </c>
+      <c r="F104" s="15">
+        <f t="shared" si="3"/>
+        <v>6.9911346668072349</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H104" s="18">
+        <v>1.8185427736934052</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K104" s="18">
+        <v>20.043762496631004</v>
+      </c>
     </row>
     <row r="105" spans="1:1671" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B105" s="5"/>
-      <c r="C105" s="18">
+      <c r="B105" s="27"/>
+      <c r="C105" s="10">
         <f>AVERAGE(logistics!B26:K26)</f>
         <v>2.5512790000000005E-4</v>
       </c>
-      <c r="D105" s="19">
+      <c r="D105" s="11">
         <f>AVERAGE(logistics!B55:K55)</f>
         <v>1.9453099999999998E-5</v>
       </c>
+      <c r="E105" s="15">
+        <f t="shared" si="2"/>
+        <v>1.7166140410297874</v>
+      </c>
+      <c r="F105" s="15">
+        <f t="shared" si="3"/>
+        <v>12.115025368707306</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H105" s="18">
+        <v>1.830700980804032</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K105" s="18">
+        <v>21.62683504604297</v>
+      </c>
     </row>
     <row r="106" spans="1:1671" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B106" s="5"/>
-      <c r="C106" s="18">
+      <c r="B106" s="27"/>
+      <c r="C106" s="10">
         <f>AVERAGE(logistics!B27:K27)</f>
         <v>2.7075539999999999E-4</v>
       </c>
-      <c r="D106" s="19">
+      <c r="D106" s="11">
         <f>AVERAGE(logistics!B56:K56)</f>
         <v>1.3668199999999997E-5</v>
       </c>
+      <c r="E106" s="15">
+        <f t="shared" si="2"/>
+        <v>1.8077768511473731</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="3"/>
+        <v>18.80914824190457</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H106" s="18">
+        <v>1.936584659731007</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K106" s="18">
+        <v>61.076220722508928</v>
+      </c>
     </row>
     <row r="107" spans="1:1671" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="20">
+      <c r="B107" s="29"/>
+      <c r="C107" s="12">
         <f>AVERAGE(logistics!B28:K28)</f>
         <v>2.5769330000000002E-4</v>
       </c>
-      <c r="D107" s="21">
+      <c r="D107" s="13">
         <f>AVERAGE(logistics!B57:K57)</f>
         <v>1.2408899999999999E-5</v>
       </c>
+      <c r="E107" s="16">
+        <f t="shared" si="2"/>
+        <v>1.8162340032772784</v>
+      </c>
+      <c r="F107" s="16">
+        <f t="shared" si="3"/>
+        <v>19.766812529716578</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H107" s="19">
+        <v>1.964293555430719</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K107" s="19">
+        <v>110.02459523066891</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="106">
+  <sortState ref="J3:K107">
+    <sortCondition ref="K3:K107"/>
+  </sortState>
+  <mergeCells count="110">
+    <mergeCell ref="J1:K2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
@@ -20912,6 +24108,18 @@
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A79:B79"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
     <mergeCell ref="A92:B92"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="A94:B94"/>
@@ -20924,18 +24132,9 @@
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
